--- a/data/trans_orig/P29A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C467B94C-9723-478E-BA90-7BD23E93E19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B24AAAED-8637-4CF5-8B36-7D4D66E35E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8BE6C60F-E731-4310-AD58-D46D21FB56F7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{31706B58-21E2-4FBD-A0C5-74A5134E5F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="572">
   <si>
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 40,87%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>97,27%</t>
   </si>
   <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -95,7 +95,7 @@
     <t>98,19%</t>
   </si>
   <si>
-    <t>95,95%</t>
+    <t>95,49%</t>
   </si>
   <si>
     <t>99,55%</t>
@@ -107,10 +107,10 @@
     <t>2,73%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -128,7 +128,7 @@
     <t>0,45%</t>
   </si>
   <si>
-    <t>4,05%</t>
+    <t>4,51%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -137,1143 +137,1113 @@
     <t>93,62%</t>
   </si>
   <si>
-    <t>89,63%</t>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 43,49%)</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>96,84%</t>
   </si>
   <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 43,49%)</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
     <t>98,71%</t>
   </si>
   <si>
@@ -1328,469 +1298,463 @@
     <t>84,36%</t>
   </si>
   <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
   </si>
   <si>
     <t>64,22%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
   </si>
   <si>
     <t>75,92%</t>
   </si>
   <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>15,64%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
   </si>
   <si>
     <t>35,78%</t>
   </si>
   <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
   </si>
   <si>
     <t>24,08%</t>
   </si>
   <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
   </si>
   <si>
     <t>82,47%</t>
   </si>
   <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
   </si>
   <si>
     <t>71,72%</t>
   </si>
   <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
   </si>
   <si>
     <t>78,57%</t>
   </si>
   <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
+    <t>73,72%</t>
   </si>
   <si>
     <t>17,53%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
   </si>
   <si>
     <t>28,28%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>26,28%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>93,13%</t>
+    <t>92,81%</t>
   </si>
   <si>
     <t>82,3%</t>
   </si>
   <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>91,01%</t>
   </si>
   <si>
-    <t>93,68%</t>
+    <t>87,8%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>6,87%</t>
+    <t>7,19%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>6,32%</t>
+    <t>12,2%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>80,23%</t>
   </si>
   <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
   </si>
   <si>
     <t>85,81%</t>
   </si>
   <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
   </si>
   <si>
     <t>14,19%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>77,23%</t>
   </si>
   <si>
     <t>61,44%</t>
   </si>
   <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
   </si>
   <si>
     <t>80,84%</t>
   </si>
   <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
+    <t>22,77%</t>
   </si>
   <si>
     <t>38,56%</t>
   </si>
   <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
   </si>
   <si>
     <t>19,16%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
   </si>
   <si>
     <t>94,34%</t>
   </si>
   <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
   </si>
   <si>
     <t>92,42%</t>
   </si>
   <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>93,61%</t>
   </si>
   <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
   </si>
   <si>
     <t>7,58%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>85,26%</t>
   </si>
   <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>80,27%</t>
   </si>
   <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
   </si>
   <si>
     <t>19,73%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
   </si>
   <si>
     <t>63,36%</t>
   </si>
   <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
   </si>
   <si>
     <t>42,11%</t>
   </si>
   <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
   </si>
   <si>
     <t>55,71%</t>
   </si>
   <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
   </si>
   <si>
     <t>36,64%</t>
   </si>
   <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
   </si>
   <si>
     <t>57,89%</t>
   </si>
   <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
   </si>
   <si>
     <t>44,29%</t>
   </si>
   <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>73,73%</t>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
   </si>
   <si>
     <t>70,76%</t>
   </si>
   <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
   </si>
   <si>
     <t>77,06%</t>
   </si>
   <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>26,27%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
   </si>
   <si>
     <t>22,94%</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
   </si>
 </sst>
 </file>
@@ -2202,7 +2166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B817675-3796-4040-94F5-D9AAF702BEB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8C8D1E-2DA4-4978-B619-2755391C38AC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3581,13 +3545,13 @@
         <v>823855</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M28" s="7">
         <v>2550</v>
@@ -3596,13 +3560,13 @@
         <v>2599950</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3581,13 @@
         <v>60869</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H29" s="7">
         <v>52</v>
@@ -3632,13 +3596,13 @@
         <v>52747</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M29" s="7">
         <v>111</v>
@@ -3647,13 +3611,13 @@
         <v>113616</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,7 +3673,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3733,7 +3697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8D94F9-8891-4FA2-81C2-E688901283B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA39B18-F400-46A3-B5DF-AAC89350C1EB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3750,7 +3714,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3855,39 +3819,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,39 +3864,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,39 +3909,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +3958,13 @@
         <v>274260</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>112</v>
@@ -4009,13 +3973,13 @@
         <v>121137</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>368</v>
@@ -4024,13 +3988,13 @@
         <v>395397</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,13 +4009,13 @@
         <v>8880</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -4060,13 +4024,13 @@
         <v>12972</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -4075,13 +4039,13 @@
         <v>21852</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4113,13 @@
         <v>175154</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -4164,13 +4128,13 @@
         <v>107779</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>274</v>
@@ -4179,13 +4143,13 @@
         <v>282933</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4164,13 @@
         <v>7854</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -4215,13 +4179,13 @@
         <v>6912</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -4230,13 +4194,13 @@
         <v>14766</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4268,13 @@
         <v>334074</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>151</v>
@@ -4319,13 +4283,13 @@
         <v>167741</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>463</v>
@@ -4334,13 +4298,13 @@
         <v>501815</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4319,13 @@
         <v>15190</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -4370,13 +4334,13 @@
         <v>20651</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -4385,13 +4349,13 @@
         <v>35841</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4423,13 @@
         <v>121921</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -4474,13 +4438,13 @@
         <v>47566</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>157</v>
@@ -4489,13 +4453,13 @@
         <v>169486</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>231</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4474,13 @@
         <v>6287</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -4525,13 +4489,13 @@
         <v>6543</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -4540,13 +4504,13 @@
         <v>12831</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,10 +4578,10 @@
         <v>172492</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -4629,13 +4593,13 @@
         <v>82091</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M19" s="7">
         <v>244</v>
@@ -4644,13 +4608,13 @@
         <v>254584</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4629,13 @@
         <v>2752</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -4680,13 +4644,13 @@
         <v>10027</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4695,13 +4659,13 @@
         <v>12778</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4733,13 @@
         <v>360236</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="H22" s="7">
         <v>170</v>
@@ -4784,13 +4748,13 @@
         <v>186721</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M22" s="7">
         <v>513</v>
@@ -4799,13 +4763,13 @@
         <v>546958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +4784,13 @@
         <v>6379</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -4835,13 +4799,13 @@
         <v>19037</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>23</v>
@@ -4850,13 +4814,13 @@
         <v>25415</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4888,13 @@
         <v>399692</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>273</v>
+        <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>73</v>
+        <v>271</v>
       </c>
       <c r="H25" s="7">
         <v>167</v>
@@ -4939,13 +4903,13 @@
         <v>181867</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>274</v>
+        <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="M25" s="7">
         <v>533</v>
@@ -4957,10 +4921,10 @@
         <v>153</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4939,13 @@
         <v>7194</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -4990,13 +4954,13 @@
         <v>12693</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>281</v>
+        <v>113</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -5005,13 +4969,13 @@
         <v>19886</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5043,13 @@
         <v>1837828</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H28" s="7">
         <v>822</v>
@@ -5094,13 +5058,13 @@
         <v>894904</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="M28" s="7">
         <v>2552</v>
@@ -5109,13 +5073,13 @@
         <v>2732732</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5094,13 @@
         <v>54536</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H29" s="7">
         <v>83</v>
@@ -5145,13 +5109,13 @@
         <v>88834</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M29" s="7">
         <v>135</v>
@@ -5160,7 +5124,7 @@
         <v>143370</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>295</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>296</v>
@@ -5222,7 +5186,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5246,7 +5210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CAEEBF-EFD2-4435-8B08-EC8CF0244700}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3798CA37-3204-4744-9EED-B740EAFAA0D7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5385,10 +5349,10 @@
         <v>98180</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -5400,13 +5364,13 @@
         <v>270219</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,13 +5385,13 @@
         <v>1022</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5436,13 +5400,13 @@
         <v>2240</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5451,13 +5415,13 @@
         <v>3262</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,10 +5489,10 @@
         <v>253531</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -5540,13 +5504,13 @@
         <v>92616</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M7" s="7">
         <v>329</v>
@@ -5555,10 +5519,10 @@
         <v>346146</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>318</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>299</v>
@@ -5576,13 +5540,13 @@
         <v>2089</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5591,13 +5555,13 @@
         <v>3987</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -5606,13 +5570,13 @@
         <v>6076</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>324</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,10 +5644,10 @@
         <v>183455</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -5695,10 +5659,10 @@
         <v>114659</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -5710,13 +5674,13 @@
         <v>298115</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5695,13 @@
         <v>935</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5746,13 +5710,13 @@
         <v>1899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5761,13 +5725,13 @@
         <v>2833</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,13 +5799,13 @@
         <v>213032</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
@@ -5850,13 +5814,13 @@
         <v>135884</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>328</v>
@@ -5865,13 +5829,13 @@
         <v>348916</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5850,13 @@
         <v>10849</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -5901,13 +5865,13 @@
         <v>8012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -5916,13 +5880,13 @@
         <v>18861</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,10 +5954,10 @@
         <v>85955</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -6008,7 +5972,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -6020,10 +5984,10 @@
         <v>123429</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -6041,13 +6005,13 @@
         <v>1511</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6062,7 +6026,7 @@
         <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -6071,13 +6035,13 @@
         <v>1511</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,10 +6109,10 @@
         <v>182352</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -6160,10 +6124,10 @@
         <v>101711</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -6175,13 +6139,13 @@
         <v>284063</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>371</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6160,13 @@
         <v>1957</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -6211,13 +6175,13 @@
         <v>1931</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -6226,13 +6190,13 @@
         <v>3888</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,10 +6264,10 @@
         <v>368902</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
@@ -6315,13 +6279,13 @@
         <v>248952</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="M22" s="7">
         <v>554</v>
@@ -6330,13 +6294,13 @@
         <v>617855</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>385</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6315,13 @@
         <v>1086</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -6366,13 +6330,13 @@
         <v>5823</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -6381,13 +6345,13 @@
         <v>6909</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>394</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,13 +6419,13 @@
         <v>418737</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H25" s="7">
         <v>223</v>
@@ -6470,13 +6434,13 @@
         <v>242511</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="M25" s="7">
         <v>621</v>
@@ -6485,13 +6449,13 @@
         <v>661248</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>33</v>
+        <v>392</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>402</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,13 +6470,13 @@
         <v>5070</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -6521,13 +6485,13 @@
         <v>7302</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -6536,13 +6500,13 @@
         <v>12372</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>410</v>
+        <v>276</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>41</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,13 +6574,13 @@
         <v>1878007</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="H28" s="7">
         <v>1027</v>
@@ -6625,13 +6589,13 @@
         <v>1071986</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="M28" s="7">
         <v>2803</v>
@@ -6640,13 +6604,13 @@
         <v>2949993</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>123</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6625,13 @@
         <v>24517</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -6676,13 +6640,13 @@
         <v>31194</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="M29" s="7">
         <v>54</v>
@@ -6691,10 +6655,10 @@
         <v>55711</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>131</v>
@@ -6753,7 +6717,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -6777,7 +6741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29156D1B-E0FE-40C5-AD83-39BEAA38EF68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7873E6-091B-40E7-958C-AA08A364E387}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6794,7 +6758,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6901,13 +6865,13 @@
         <v>154480</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="H4" s="7">
         <v>163</v>
@@ -6916,13 +6880,13 @@
         <v>84957</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="M4" s="7">
         <v>347</v>
@@ -6931,13 +6895,13 @@
         <v>239437</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6952,13 +6916,13 @@
         <v>28633</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="H5" s="7">
         <v>78</v>
@@ -6967,13 +6931,13 @@
         <v>47331</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="M5" s="7">
         <v>110</v>
@@ -6982,13 +6946,13 @@
         <v>75964</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,13 +7020,13 @@
         <v>253202</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="H7" s="7">
         <v>146</v>
@@ -7071,13 +7035,13 @@
         <v>125298</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="M7" s="7">
         <v>326</v>
@@ -7086,13 +7050,13 @@
         <v>378501</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7071,13 @@
         <v>53809</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="H8" s="7">
         <v>56</v>
@@ -7122,13 +7086,13 @@
         <v>49400</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -7137,13 +7101,13 @@
         <v>103208</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,13 +7175,13 @@
         <v>188942</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>391</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -7226,13 +7190,13 @@
         <v>95313</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="M10" s="7">
         <v>336</v>
@@ -7241,13 +7205,13 @@
         <v>284255</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>470</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7226,13 @@
         <v>7576</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>399</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -7277,13 +7241,13 @@
         <v>20493</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -7292,13 +7256,13 @@
         <v>28069</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>477</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,13 +7330,13 @@
         <v>182311</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -7381,13 +7345,13 @@
         <v>134165</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="M13" s="7">
         <v>341</v>
@@ -7396,13 +7360,13 @@
         <v>316475</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7417,13 +7381,13 @@
         <v>19288</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -7432,13 +7396,13 @@
         <v>33062</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -7447,13 +7411,13 @@
         <v>52350</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7521,13 +7485,13 @@
         <v>34529</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>498</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -7536,13 +7500,13 @@
         <v>9796</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -7551,13 +7515,13 @@
         <v>44326</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7572,13 +7536,13 @@
         <v>4354</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>506</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -7587,13 +7551,13 @@
         <v>6150</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -7602,13 +7566,13 @@
         <v>10503</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7676,13 +7640,13 @@
         <v>169003</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="H19" s="7">
         <v>148</v>
@@ -7691,13 +7655,13 @@
         <v>103336</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="M19" s="7">
         <v>358</v>
@@ -7706,13 +7670,13 @@
         <v>272338</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7727,13 +7691,13 @@
         <v>10133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -7742,13 +7706,13 @@
         <v>8471</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -7757,13 +7721,13 @@
         <v>18605</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7831,13 +7795,13 @@
         <v>309088</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="H22" s="7">
         <v>289</v>
@@ -7846,13 +7810,13 @@
         <v>322609</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="M22" s="7">
         <v>581</v>
@@ -7861,13 +7825,13 @@
         <v>631696</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,13 +7846,13 @@
         <v>53450</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="H23" s="7">
         <v>99</v>
@@ -7897,13 +7861,13 @@
         <v>79308</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="M23" s="7">
         <v>155</v>
@@ -7912,13 +7876,13 @@
         <v>132758</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7986,13 +7950,13 @@
         <v>327147</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="H25" s="7">
         <v>137</v>
@@ -8001,13 +7965,13 @@
         <v>122310</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="M25" s="7">
         <v>440</v>
@@ -8016,13 +7980,13 @@
         <v>449457</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8037,13 +8001,13 @@
         <v>189161</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="H26" s="7">
         <v>206</v>
@@ -8052,13 +8016,13 @@
         <v>168121</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="M26" s="7">
         <v>335</v>
@@ -8067,13 +8031,13 @@
         <v>357282</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8141,13 +8105,13 @@
         <v>1618703</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>178</v>
+        <v>556</v>
       </c>
       <c r="H28" s="7">
         <v>1206</v>
@@ -8156,13 +8120,13 @@
         <v>997784</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="M28" s="7">
         <v>2794</v>
@@ -8171,13 +8135,13 @@
         <v>2616487</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8192,13 +8156,13 @@
         <v>366403</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>564</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="H29" s="7">
         <v>517</v>
@@ -8207,13 +8171,13 @@
         <v>412336</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="M29" s="7">
         <v>809</v>
@@ -8222,13 +8186,13 @@
         <v>778738</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8284,7 +8248,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B24AAAED-8637-4CF5-8B36-7D4D66E35E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91256F68-4CD4-4D76-B312-89B9B8960CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{31706B58-21E2-4FBD-A0C5-74A5134E5F0C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{878AD221-4F38-4FD5-A790-37210CF4B239}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="570">
   <si>
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 40,87%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>97,27%</t>
   </si>
   <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -95,7 +95,7 @@
     <t>98,19%</t>
   </si>
   <si>
-    <t>95,49%</t>
+    <t>95,84%</t>
   </si>
   <si>
     <t>99,55%</t>
@@ -107,10 +107,10 @@
     <t>2,73%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -128,7 +128,7 @@
     <t>0,45%</t>
   </si>
   <si>
-    <t>4,51%</t>
+    <t>4,16%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -137,55 +137,55 @@
     <t>93,62%</t>
   </si>
   <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
   <si>
     <t>85,44%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>91,7%</t>
   </si>
   <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>8,3%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,1248 +194,1254 @@
     <t>98,51%</t>
   </si>
   <si>
-    <t>94,63%</t>
+    <t>94,25%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>92,53%</t>
+    <t>92,96%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>95,33%</t>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 43,49%)</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>96,29%</t>
   </si>
   <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>97,54%</t>
   </si>
   <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
   </si>
   <si>
     <t>97,4%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 41,21%)</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
   </si>
   <si>
     <t>93,59%</t>
   </si>
   <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 43,49%)</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 41,21%)</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
     <t>12,2%</t>
   </si>
   <si>
@@ -1541,9 +1547,6 @@
     <t>30,77%</t>
   </si>
   <si>
-    <t>94,34%</t>
-  </si>
-  <si>
     <t>88,5%</t>
   </si>
   <si>
@@ -1559,18 +1562,12 @@
     <t>96,43%</t>
   </si>
   <si>
-    <t>93,61%</t>
-  </si>
-  <si>
     <t>90,15%</t>
   </si>
   <si>
     <t>96,09%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
     <t>3,05%</t>
   </si>
   <si>
@@ -1584,9 +1581,6 @@
   </si>
   <si>
     <t>14,21%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
   </si>
   <si>
     <t>3,91%</t>
@@ -2166,7 +2160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8C8D1E-2DA4-4978-B619-2755391C38AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37809D8-39A6-4EE1-9C9E-FFC880AF9E57}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3375,13 +3369,13 @@
         <v>468205</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H25" s="7">
         <v>202</v>
@@ -3390,13 +3384,13 @@
         <v>211524</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>661</v>
@@ -3405,13 +3399,13 @@
         <v>679728</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3420,13 @@
         <v>20022</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -3441,13 +3435,13 @@
         <v>25191</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -3456,13 +3450,13 @@
         <v>45214</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3524,13 @@
         <v>1776095</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H28" s="7">
         <v>805</v>
@@ -3545,13 +3539,13 @@
         <v>823855</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M28" s="7">
         <v>2550</v>
@@ -3560,13 +3554,13 @@
         <v>2599950</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3575,13 @@
         <v>60869</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>52</v>
@@ -3596,7 +3590,7 @@
         <v>52747</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>164</v>
@@ -3697,7 +3691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA39B18-F400-46A3-B5DF-AAC89350C1EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525E2FB0-01E1-4483-BE13-241C34B23EED}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4119,7 +4113,7 @@
         <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -4128,13 +4122,13 @@
         <v>107779</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="M10" s="7">
         <v>274</v>
@@ -4167,10 +4161,10 @@
         <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -4179,10 +4173,10 @@
         <v>6912</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>200</v>
@@ -4453,13 +4447,13 @@
         <v>169486</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,10 +4498,10 @@
         <v>12831</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>237</v>
@@ -4596,10 +4590,10 @@
         <v>240</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M19" s="7">
         <v>244</v>
@@ -4608,13 +4602,13 @@
         <v>254584</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4623,13 @@
         <v>2752</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -4644,13 +4638,13 @@
         <v>10027</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4659,13 +4653,13 @@
         <v>12778</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4727,13 @@
         <v>360236</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H22" s="7">
         <v>170</v>
@@ -4748,13 +4742,13 @@
         <v>186721</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M22" s="7">
         <v>513</v>
@@ -4763,13 +4757,13 @@
         <v>546958</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,10 +4778,10 @@
         <v>6379</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>263</v>
@@ -4891,10 +4885,10 @@
         <v>270</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>253</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>271</v>
+        <v>73</v>
       </c>
       <c r="H25" s="7">
         <v>167</v>
@@ -4903,13 +4897,13 @@
         <v>181867</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>272</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="M25" s="7">
         <v>533</v>
@@ -4918,13 +4912,13 @@
         <v>581560</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4933,13 @@
         <v>7194</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>94</v>
+        <v>263</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -4954,13 +4948,13 @@
         <v>12693</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -4969,13 +4963,13 @@
         <v>19886</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5037,13 @@
         <v>1837828</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H28" s="7">
         <v>822</v>
@@ -5058,13 +5052,13 @@
         <v>894904</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M28" s="7">
         <v>2552</v>
@@ -5073,13 +5067,13 @@
         <v>2732732</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>288</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5088,13 @@
         <v>54536</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H29" s="7">
         <v>83</v>
@@ -5109,13 +5103,13 @@
         <v>88834</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M29" s="7">
         <v>135</v>
@@ -5124,10 +5118,10 @@
         <v>143370</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>296</v>
+        <v>166</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>297</v>
@@ -5210,7 +5204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3798CA37-3204-4744-9EED-B740EAFAA0D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB154A6B-CC5F-454A-B766-05663D693094}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5349,10 +5343,10 @@
         <v>98180</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -5364,13 +5358,13 @@
         <v>270219</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5385,13 +5379,13 @@
         <v>1022</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5400,13 +5394,13 @@
         <v>2240</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5415,13 +5409,13 @@
         <v>3262</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,10 +5483,10 @@
         <v>253531</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -5504,13 +5498,13 @@
         <v>92616</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M7" s="7">
         <v>329</v>
@@ -5519,13 +5513,13 @@
         <v>346146</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>160</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,13 +5534,13 @@
         <v>2089</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5555,13 +5549,13 @@
         <v>3987</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -5570,13 +5564,13 @@
         <v>6076</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,10 +5638,10 @@
         <v>183455</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -5659,10 +5653,10 @@
         <v>114659</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -5674,13 +5668,13 @@
         <v>298115</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5689,13 @@
         <v>935</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5710,13 +5704,13 @@
         <v>1899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5725,13 +5719,13 @@
         <v>2833</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,16 +5790,16 @@
         <v>201</v>
       </c>
       <c r="D13" s="7">
-        <v>213032</v>
+        <v>213033</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
@@ -5814,13 +5808,13 @@
         <v>135884</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M13" s="7">
         <v>328</v>
@@ -5829,13 +5823,13 @@
         <v>348916</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5844,13 @@
         <v>10849</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -5865,13 +5859,13 @@
         <v>8012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -5880,13 +5874,13 @@
         <v>18861</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,7 +5892,7 @@
         <v>212</v>
       </c>
       <c r="D15" s="7">
-        <v>223881</v>
+        <v>223882</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>16</v>
@@ -5954,10 +5948,10 @@
         <v>85955</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -5972,7 +5966,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -5984,10 +5978,10 @@
         <v>123429</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -6005,13 +5999,13 @@
         <v>1511</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6026,7 +6020,7 @@
         <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -6035,13 +6029,13 @@
         <v>1511</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,10 +6103,10 @@
         <v>182352</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -6124,10 +6118,10 @@
         <v>101711</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -6139,13 +6133,13 @@
         <v>284063</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>172</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>56</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6154,13 @@
         <v>1957</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -6175,13 +6169,13 @@
         <v>1931</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -6190,13 +6184,13 @@
         <v>3888</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,10 +6258,10 @@
         <v>368902</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
@@ -6279,13 +6273,13 @@
         <v>248952</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M22" s="7">
         <v>554</v>
@@ -6294,13 +6288,13 @@
         <v>617855</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>282</v>
+        <v>381</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,13 +6309,13 @@
         <v>1086</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -6330,13 +6324,13 @@
         <v>5823</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -6345,13 +6339,13 @@
         <v>6909</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,13 +6413,13 @@
         <v>418737</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H25" s="7">
         <v>223</v>
@@ -6434,13 +6428,13 @@
         <v>242511</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>389</v>
+        <v>69</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M25" s="7">
         <v>621</v>
@@ -6449,13 +6443,13 @@
         <v>661248</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>271</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,13 +6464,13 @@
         <v>5070</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -6485,13 +6479,13 @@
         <v>7302</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -6500,13 +6494,13 @@
         <v>12372</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>276</v>
+        <v>405</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,13 +6568,13 @@
         <v>1878007</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>402</v>
+        <v>105</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="H28" s="7">
         <v>1027</v>
@@ -6589,13 +6583,13 @@
         <v>1071986</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M28" s="7">
         <v>2803</v>
@@ -6604,13 +6598,13 @@
         <v>2949993</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>123</v>
+        <v>412</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6619,13 @@
         <v>24517</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -6640,13 +6634,13 @@
         <v>31194</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M29" s="7">
         <v>54</v>
@@ -6655,13 +6649,13 @@
         <v>55711</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>131</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,7 +6735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7873E6-091B-40E7-958C-AA08A364E387}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FE1B0B-9578-46EB-ACF6-F4A766AD6652}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6758,7 +6752,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6865,13 +6859,13 @@
         <v>154480</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>420</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>163</v>
@@ -6880,13 +6874,13 @@
         <v>84957</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M4" s="7">
         <v>347</v>
@@ -6895,13 +6889,13 @@
         <v>239437</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,13 +6910,13 @@
         <v>28633</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>428</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H5" s="7">
         <v>78</v>
@@ -6931,13 +6925,13 @@
         <v>47331</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M5" s="7">
         <v>110</v>
@@ -6946,13 +6940,13 @@
         <v>75964</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,13 +7014,13 @@
         <v>253202</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>436</v>
+        <v>91</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H7" s="7">
         <v>146</v>
@@ -7035,13 +7029,13 @@
         <v>125298</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M7" s="7">
         <v>326</v>
@@ -7050,13 +7044,13 @@
         <v>378501</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>436</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,7 +7065,7 @@
         <v>53809</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>444</v>
+        <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>445</v>
@@ -7104,7 +7098,7 @@
         <v>450</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>444</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>451</v>
@@ -7181,7 +7175,7 @@
         <v>453</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -7211,7 +7205,7 @@
         <v>458</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7226,13 +7220,13 @@
         <v>7576</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -7241,13 +7235,13 @@
         <v>20493</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -7256,13 +7250,13 @@
         <v>28069</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>466</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,13 +7324,13 @@
         <v>182311</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -7345,13 +7339,13 @@
         <v>134165</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M13" s="7">
         <v>341</v>
@@ -7360,13 +7354,13 @@
         <v>316475</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,13 +7375,13 @@
         <v>19288</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -7396,13 +7390,13 @@
         <v>33062</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -7411,13 +7405,13 @@
         <v>52350</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7485,10 +7479,10 @@
         <v>34529</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>104</v>
@@ -7500,13 +7494,13 @@
         <v>9796</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -7515,13 +7509,13 @@
         <v>44326</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,13 +7530,13 @@
         <v>4354</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -7551,13 +7545,13 @@
         <v>6150</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -7566,13 +7560,13 @@
         <v>10503</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,13 +7634,13 @@
         <v>169003</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>500</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H19" s="7">
         <v>148</v>
@@ -7655,13 +7649,13 @@
         <v>103336</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M19" s="7">
         <v>358</v>
@@ -7670,7 +7664,7 @@
         <v>272338</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>506</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>507</v>
@@ -7691,13 +7685,13 @@
         <v>10133</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -7706,13 +7700,13 @@
         <v>8471</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -7721,13 +7715,13 @@
         <v>18605</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,13 +7789,13 @@
         <v>309088</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="H22" s="7">
         <v>289</v>
@@ -7810,13 +7804,13 @@
         <v>322609</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="M22" s="7">
         <v>581</v>
@@ -7825,13 +7819,13 @@
         <v>631696</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,13 +7840,13 @@
         <v>53450</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="H23" s="7">
         <v>99</v>
@@ -7861,13 +7855,13 @@
         <v>79308</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="M23" s="7">
         <v>155</v>
@@ -7876,13 +7870,13 @@
         <v>132758</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7950,13 +7944,13 @@
         <v>327147</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="H25" s="7">
         <v>137</v>
@@ -7965,13 +7959,13 @@
         <v>122310</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="M25" s="7">
         <v>440</v>
@@ -7980,13 +7974,13 @@
         <v>449457</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8001,13 +7995,13 @@
         <v>189161</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H26" s="7">
         <v>206</v>
@@ -8016,13 +8010,13 @@
         <v>168121</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="M26" s="7">
         <v>335</v>
@@ -8031,13 +8025,13 @@
         <v>357282</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8105,13 +8099,13 @@
         <v>1618703</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="H28" s="7">
         <v>1206</v>
@@ -8120,13 +8114,13 @@
         <v>997784</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="M28" s="7">
         <v>2794</v>
@@ -8135,13 +8129,13 @@
         <v>2616487</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8156,13 +8150,13 @@
         <v>366403</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="H29" s="7">
         <v>517</v>
@@ -8171,13 +8165,13 @@
         <v>412336</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>568</v>
       </c>
       <c r="M29" s="7">
         <v>809</v>
@@ -8186,13 +8180,13 @@
         <v>778738</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P29A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6D2ABEE-674C-481C-BBAE-C542DED7DE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7630DD4F-E475-4793-B95A-C8C6FDF15B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{560F597B-DFF4-4E35-A760-60A5830260C7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E9B08D90-7C33-4A54-AB45-A20D972B425B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="640">
   <si>
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 99,08%)</t>
   </si>
@@ -593,7 +593,58 @@
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 96,83%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
   </si>
   <si>
     <t>57,31%</t>
@@ -704,58 +755,58 @@
     <t>59,46%</t>
   </si>
   <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
   </si>
   <si>
     <t>57,34%</t>
@@ -1472,448 +1523,442 @@
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,73%)</t>
   </si>
   <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
   </si>
   <si>
     <t>58,63%</t>
   </si>
   <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
   </si>
   <si>
     <t>55,45%</t>
   </si>
   <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
   </si>
   <si>
     <t>42,55%</t>
   </si>
   <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
   </si>
   <si>
     <t>57,45%</t>
   </si>
   <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
+    <t>66,72%</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA73BB9-2177-4E5D-8D10-B89E4AAAF7B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A94FAA-0947-42DC-9545-633210CB51ED}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3612,7 +3657,7 @@
         <v>812</v>
       </c>
       <c r="N26" s="7">
-        <v>839694</v>
+        <v>839693</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>161</v>
@@ -3663,7 +3708,7 @@
         <v>1473</v>
       </c>
       <c r="N27" s="7">
-        <v>1519422</v>
+        <v>1519421</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -3737,7 +3782,7 @@
         <v>1427</v>
       </c>
       <c r="D29" s="7">
-        <v>1456509</v>
+        <v>1456508</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>173</v>
@@ -3788,7 +3833,7 @@
         <v>3172</v>
       </c>
       <c r="D30" s="7">
-        <v>3232604</v>
+        <v>3232603</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3856,7 +3901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD2B442-ACFC-47F8-9D07-1437F3DE6183}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7F1717-051D-4759-A2B3-BAD2D42B2957}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3974,43 +4019,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>159</v>
+      </c>
+      <c r="D4" s="7">
+        <v>165746</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="I4" s="7">
+        <v>96413</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>242</v>
+      </c>
+      <c r="N4" s="7">
+        <v>262160</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,43 +4070,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="D5" s="7">
+        <v>128043</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>170</v>
+      </c>
+      <c r="I5" s="7">
+        <v>186731</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>292</v>
+      </c>
+      <c r="N5" s="7">
+        <v>314774</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,43 +4121,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="D6" s="7">
+        <v>293789</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="I6" s="7">
+        <v>283144</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>534</v>
+      </c>
+      <c r="N6" s="7">
+        <v>576934</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4180,13 @@
         <v>274259</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>112</v>
@@ -4132,13 +4195,13 @@
         <v>121138</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>368</v>
@@ -4147,13 +4210,13 @@
         <v>395397</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4231,13 @@
         <v>204288</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>353</v>
@@ -4183,13 +4246,13 @@
         <v>385374</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>542</v>
@@ -4198,13 +4261,13 @@
         <v>589663</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4335,13 @@
         <v>175153</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -4287,13 +4350,13 @@
         <v>107780</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>274</v>
@@ -4302,13 +4365,13 @@
         <v>282933</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4386,13 @@
         <v>129427</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>210</v>
@@ -4338,13 +4401,13 @@
         <v>223282</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>333</v>
@@ -4353,13 +4416,13 @@
         <v>352710</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,49 +4484,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>312</v>
+        <v>153</v>
       </c>
       <c r="D13" s="7">
-        <v>334074</v>
+        <v>168327</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H13" s="7">
+        <v>68</v>
+      </c>
+      <c r="I13" s="7">
+        <v>71327</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M13" s="7">
         <v>221</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H13" s="7">
-        <v>151</v>
-      </c>
-      <c r="I13" s="7">
-        <v>167741</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M13" s="7">
-        <v>463</v>
-      </c>
       <c r="N13" s="7">
-        <v>501814</v>
+        <v>239655</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,49 +4535,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>177</v>
+      </c>
+      <c r="D14" s="7">
+        <v>189514</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H14" s="7">
         <v>299</v>
       </c>
-      <c r="D14" s="7">
-        <v>317556</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H14" s="7">
-        <v>469</v>
-      </c>
       <c r="I14" s="7">
-        <v>499813</v>
+        <v>313082</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
-        <v>768</v>
+        <v>476</v>
       </c>
       <c r="N14" s="7">
-        <v>817370</v>
+        <v>502596</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,10 +4586,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>611</v>
+        <v>330</v>
       </c>
       <c r="D15" s="7">
-        <v>651630</v>
+        <v>357841</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4538,10 +4601,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>620</v>
+        <v>367</v>
       </c>
       <c r="I15" s="7">
-        <v>667554</v>
+        <v>384409</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4553,10 +4616,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1231</v>
+        <v>697</v>
       </c>
       <c r="N15" s="7">
-        <v>1319184</v>
+        <v>742251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4582,13 +4645,13 @@
         <v>121921</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -4597,13 +4660,13 @@
         <v>47566</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>157</v>
@@ -4612,13 +4675,13 @@
         <v>169486</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4696,13 @@
         <v>90697</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>167</v>
@@ -4648,13 +4711,13 @@
         <v>172025</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>251</v>
@@ -4663,13 +4726,13 @@
         <v>262723</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,10 +4803,10 @@
         <v>109</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -4752,13 +4815,13 @@
         <v>82092</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="M19" s="7">
         <v>244</v>
@@ -4770,10 +4833,10 @@
         <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,10 +4854,10 @@
         <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -4803,13 +4866,13 @@
         <v>194824</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="M20" s="7">
         <v>273</v>
@@ -4821,10 +4884,10 @@
         <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4955,13 @@
         <v>360237</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>170</v>
@@ -4907,13 +4970,13 @@
         <v>186721</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>513</v>
@@ -4922,10 +4985,10 @@
         <v>546958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>19</v>
@@ -4943,13 +5006,13 @@
         <v>271697</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="H23" s="7">
         <v>458</v>
@@ -4958,13 +5021,13 @@
         <v>498365</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="M23" s="7">
         <v>707</v>
@@ -4973,13 +5036,13 @@
         <v>770061</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5110,13 @@
         <v>399692</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>167</v>
@@ -5062,13 +5125,13 @@
         <v>181867</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>533</v>
@@ -5077,13 +5140,13 @@
         <v>581559</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,16 +5158,16 @@
         <v>308</v>
       </c>
       <c r="D26" s="7">
-        <v>331554</v>
+        <v>331555</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>567</v>
@@ -5113,13 +5176,13 @@
         <v>617552</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>875</v>
@@ -5128,13 +5191,13 @@
         <v>949107</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,7 +5209,7 @@
         <v>674</v>
       </c>
       <c r="D27" s="7">
-        <v>731246</v>
+        <v>731247</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -5202,13 +5265,13 @@
         <v>1837828</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>822</v>
@@ -5217,13 +5280,13 @@
         <v>894904</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>2552</v>
@@ -5232,13 +5295,13 @@
         <v>2732732</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5316,13 @@
         <v>1436748</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>2411</v>
@@ -5268,13 +5331,13 @@
         <v>2591237</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>3749</v>
@@ -5283,13 +5346,13 @@
         <v>4027984</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,7 +5432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB095BEE-FD2D-4C5C-BC8D-14DA6EBD004A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13D0AEC-2280-4D8A-8EDC-C7DC4D6D6A33}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5386,7 +5449,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5493,13 +5556,13 @@
         <v>172040</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>97</v>
@@ -5508,13 +5571,13 @@
         <v>98180</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>256</v>
@@ -5523,13 +5586,13 @@
         <v>270220</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5607,13 @@
         <v>116110</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>173</v>
@@ -5559,13 +5622,13 @@
         <v>182899</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>275</v>
@@ -5574,13 +5637,13 @@
         <v>299009</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5711,13 @@
         <v>253531</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>88</v>
@@ -5663,13 +5726,13 @@
         <v>92615</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>329</v>
@@ -5678,13 +5741,13 @@
         <v>346146</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5762,13 @@
         <v>236926</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>390</v>
@@ -5714,13 +5777,13 @@
         <v>423724</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
         <v>612</v>
@@ -5729,13 +5792,13 @@
         <v>660650</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5866,13 @@
         <v>183455</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>118</v>
@@ -5818,13 +5881,13 @@
         <v>114659</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>309</v>
@@ -5833,13 +5896,13 @@
         <v>298115</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5917,13 @@
         <v>112452</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>208</v>
@@ -5869,13 +5932,13 @@
         <v>215730</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>329</v>
@@ -5884,13 +5947,13 @@
         <v>328181</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +6021,13 @@
         <v>213033</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
@@ -5973,13 +6036,13 @@
         <v>135884</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="M13" s="7">
         <v>328</v>
@@ -5988,13 +6051,13 @@
         <v>348916</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6072,13 @@
         <v>147404</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="H14" s="7">
         <v>224</v>
@@ -6024,13 +6087,13 @@
         <v>242498</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="M14" s="7">
         <v>368</v>
@@ -6039,13 +6102,13 @@
         <v>389902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6176,13 @@
         <v>85956</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -6128,13 +6191,13 @@
         <v>37474</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="M16" s="7">
         <v>126</v>
@@ -6143,13 +6206,13 @@
         <v>123430</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6227,13 @@
         <v>121554</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="H17" s="7">
         <v>183</v>
@@ -6179,13 +6242,13 @@
         <v>181113</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="M17" s="7">
         <v>305</v>
@@ -6194,13 +6257,13 @@
         <v>302667</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6331,13 @@
         <v>182352</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="H19" s="7">
         <v>101</v>
@@ -6283,13 +6346,13 @@
         <v>101711</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="M19" s="7">
         <v>280</v>
@@ -6298,13 +6361,13 @@
         <v>284063</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,16 +6379,16 @@
         <v>75</v>
       </c>
       <c r="D20" s="7">
-        <v>76028</v>
+        <v>76027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="H20" s="7">
         <v>160</v>
@@ -6334,10 +6397,10 @@
         <v>169445</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>142</v>
@@ -6349,13 +6412,13 @@
         <v>245472</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,7 +6430,7 @@
         <v>254</v>
       </c>
       <c r="D21" s="7">
-        <v>258380</v>
+        <v>258379</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6420,16 +6483,16 @@
         <v>321</v>
       </c>
       <c r="D22" s="7">
-        <v>368903</v>
+        <v>368902</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="H22" s="7">
         <v>233</v>
@@ -6438,13 +6501,13 @@
         <v>248952</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="M22" s="7">
         <v>554</v>
@@ -6453,13 +6516,13 @@
         <v>617855</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6537,13 @@
         <v>271839</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="H23" s="7">
         <v>406</v>
@@ -6489,13 +6552,13 @@
         <v>434791</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="M23" s="7">
         <v>652</v>
@@ -6504,13 +6567,13 @@
         <v>706630</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,7 +6585,7 @@
         <v>567</v>
       </c>
       <c r="D24" s="7">
-        <v>640742</v>
+        <v>640741</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6578,13 +6641,13 @@
         <v>418737</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="H25" s="7">
         <v>223</v>
@@ -6593,10 +6656,10 @@
         <v>242511</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>156</v>
@@ -6608,13 +6671,13 @@
         <v>661249</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6692,13 @@
         <v>327227</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="H26" s="7">
         <v>516</v>
@@ -6644,13 +6707,13 @@
         <v>565878</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="M26" s="7">
         <v>838</v>
@@ -6659,13 +6722,13 @@
         <v>893105</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6796,13 @@
         <v>1878006</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="H28" s="7">
         <v>1027</v>
@@ -6748,13 +6811,13 @@
         <v>1071986</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="M28" s="7">
         <v>2803</v>
@@ -6763,13 +6826,13 @@
         <v>2949993</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6847,13 @@
         <v>1409540</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="H29" s="7">
         <v>2260</v>
@@ -6799,13 +6862,13 @@
         <v>2416078</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="M29" s="7">
         <v>3614</v>
@@ -6814,13 +6877,13 @@
         <v>3825617</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6900,7 +6963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79738D22-447A-4112-92EE-F18563FF86D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083A6BFA-4FBA-4CE7-B54F-2530D038B271}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6917,7 +6980,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7021,46 +7084,46 @@
         <v>184</v>
       </c>
       <c r="D4" s="7">
-        <v>154480</v>
+        <v>179889</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="H4" s="7">
         <v>163</v>
       </c>
       <c r="I4" s="7">
-        <v>84957</v>
+        <v>90683</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="M4" s="7">
         <v>347</v>
       </c>
       <c r="N4" s="7">
-        <v>239437</v>
+        <v>270572</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7072,46 +7135,46 @@
         <v>147</v>
       </c>
       <c r="D5" s="7">
-        <v>105818</v>
+        <v>131554</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="H5" s="7">
         <v>375</v>
       </c>
       <c r="I5" s="7">
-        <v>186446</v>
+        <v>198952</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="M5" s="7">
         <v>522</v>
       </c>
       <c r="N5" s="7">
-        <v>292263</v>
+        <v>330505</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,7 +7186,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7138,7 +7201,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7153,7 +7216,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7176,46 +7239,46 @@
         <v>180</v>
       </c>
       <c r="D7" s="7">
-        <v>253202</v>
+        <v>255636</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>129</v>
+        <v>437</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="H7" s="7">
         <v>146</v>
       </c>
       <c r="I7" s="7">
-        <v>125299</v>
+        <v>116970</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="M7" s="7">
         <v>326</v>
       </c>
       <c r="N7" s="7">
-        <v>378501</v>
+        <v>372606</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,46 +7290,46 @@
         <v>200</v>
       </c>
       <c r="D8" s="7">
-        <v>263764</v>
+        <v>260557</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>446</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="H8" s="7">
         <v>570</v>
       </c>
       <c r="I8" s="7">
-        <v>428612</v>
+        <v>397415</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="M8" s="7">
         <v>770</v>
       </c>
       <c r="N8" s="7">
-        <v>692376</v>
+        <v>657972</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,7 +7341,7 @@
         <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>516966</v>
+        <v>516193</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7293,7 +7356,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553911</v>
+        <v>514385</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7308,7 +7371,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1070877</v>
+        <v>1030578</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7331,46 +7394,46 @@
         <v>212</v>
       </c>
       <c r="D10" s="7">
-        <v>188942</v>
+        <v>185186</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
       </c>
       <c r="I10" s="7">
-        <v>95313</v>
+        <v>89812</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="M10" s="7">
         <v>336</v>
       </c>
       <c r="N10" s="7">
-        <v>284255</v>
+        <v>274998</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>387</v>
+        <v>534</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,46 +7445,46 @@
         <v>148</v>
       </c>
       <c r="D11" s="7">
-        <v>133298</v>
+        <v>130864</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="H11" s="7">
         <v>411</v>
       </c>
       <c r="I11" s="7">
-        <v>277486</v>
+        <v>258856</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="M11" s="7">
         <v>559</v>
       </c>
       <c r="N11" s="7">
-        <v>410784</v>
+        <v>389720</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>543</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,7 +7496,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7448,7 +7511,7 @@
         <v>535</v>
       </c>
       <c r="I12" s="7">
-        <v>372799</v>
+        <v>348668</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7463,7 +7526,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>695039</v>
+        <v>664718</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7486,46 +7549,46 @@
         <v>161</v>
       </c>
       <c r="D13" s="7">
-        <v>182311</v>
+        <v>178179</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>527</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
       </c>
       <c r="I13" s="7">
-        <v>134164</v>
+        <v>124346</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="M13" s="7">
         <v>341</v>
       </c>
       <c r="N13" s="7">
-        <v>316475</v>
+        <v>302524</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>192</v>
+        <v>552</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,46 +7600,46 @@
         <v>131</v>
       </c>
       <c r="D14" s="7">
-        <v>139929</v>
+        <v>134378</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>535</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="H14" s="7">
         <v>419</v>
       </c>
       <c r="I14" s="7">
-        <v>294392</v>
+        <v>351372</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="M14" s="7">
         <v>550</v>
       </c>
       <c r="N14" s="7">
-        <v>434321</v>
+        <v>485750</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>202</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,7 +7651,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7603,7 +7666,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7618,7 +7681,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7641,46 +7704,46 @@
         <v>46</v>
       </c>
       <c r="D16" s="7">
-        <v>34530</v>
+        <v>31146</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
       </c>
       <c r="I16" s="7">
-        <v>9796</v>
+        <v>8583</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
       </c>
       <c r="N16" s="7">
-        <v>44326</v>
+        <v>39729</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7692,46 +7755,46 @@
         <v>233</v>
       </c>
       <c r="D17" s="7">
-        <v>162218</v>
+        <v>147596</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="H17" s="7">
         <v>473</v>
       </c>
       <c r="I17" s="7">
-        <v>222107</v>
+        <v>200073</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="M17" s="7">
         <v>706</v>
       </c>
       <c r="N17" s="7">
-        <v>384325</v>
+        <v>347669</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7743,7 +7806,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7758,7 +7821,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7773,7 +7836,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7796,46 +7859,46 @@
         <v>210</v>
       </c>
       <c r="D19" s="7">
-        <v>169003</v>
+        <v>164637</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="H19" s="7">
         <v>148</v>
       </c>
       <c r="I19" s="7">
-        <v>103336</v>
+        <v>96420</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>564</v>
+        <v>434</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="M19" s="7">
         <v>358</v>
       </c>
       <c r="N19" s="7">
-        <v>272338</v>
+        <v>261057</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>567</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,46 +7910,46 @@
         <v>159</v>
       </c>
       <c r="D20" s="7">
-        <v>106988</v>
+        <v>103821</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="H20" s="7">
         <v>312</v>
       </c>
       <c r="I20" s="7">
-        <v>172286</v>
+        <v>160636</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>573</v>
+        <v>442</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="M20" s="7">
         <v>471</v>
       </c>
       <c r="N20" s="7">
-        <v>279275</v>
+        <v>264457</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>576</v>
+        <v>267</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,7 +7961,7 @@
         <v>369</v>
       </c>
       <c r="D21" s="7">
-        <v>275991</v>
+        <v>268458</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7913,7 +7976,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7928,7 +7991,7 @@
         <v>829</v>
       </c>
       <c r="N21" s="7">
-        <v>551613</v>
+        <v>525514</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7951,46 +8014,46 @@
         <v>292</v>
       </c>
       <c r="D22" s="7">
-        <v>309088</v>
+        <v>308093</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>579</v>
+        <v>192</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>431</v>
+        <v>595</v>
       </c>
       <c r="H22" s="7">
         <v>289</v>
       </c>
       <c r="I22" s="7">
-        <v>322608</v>
+        <v>401553</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>80</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="M22" s="7">
         <v>581</v>
       </c>
       <c r="N22" s="7">
-        <v>631696</v>
+        <v>709646</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>598</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,28 +8065,28 @@
         <v>303</v>
       </c>
       <c r="D23" s="7">
-        <v>315164</v>
+        <v>312792</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>585</v>
+        <v>200</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>441</v>
+        <v>601</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="H23" s="7">
         <v>664</v>
       </c>
       <c r="I23" s="7">
-        <v>477098</v>
+        <v>443646</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>72</v>
@@ -8032,16 +8095,16 @@
         <v>967</v>
       </c>
       <c r="N23" s="7">
-        <v>792262</v>
+        <v>756438</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>605</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,7 +8116,7 @@
         <v>595</v>
       </c>
       <c r="D24" s="7">
-        <v>624252</v>
+        <v>620885</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8068,7 +8131,7 @@
         <v>953</v>
       </c>
       <c r="I24" s="7">
-        <v>799706</v>
+        <v>845199</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8083,7 +8146,7 @@
         <v>1548</v>
       </c>
       <c r="N24" s="7">
-        <v>1423958</v>
+        <v>1466084</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8106,46 +8169,46 @@
         <v>303</v>
       </c>
       <c r="D25" s="7">
-        <v>327147</v>
+        <v>277537</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="H25" s="7">
         <v>137</v>
       </c>
       <c r="I25" s="7">
-        <v>122310</v>
+        <v>99825</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="M25" s="7">
         <v>440</v>
       </c>
       <c r="N25" s="7">
-        <v>449458</v>
+        <v>377362</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>597</v>
+        <v>243</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,46 +8220,46 @@
         <v>459</v>
       </c>
       <c r="D26" s="7">
-        <v>532281</v>
+        <v>651183</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="H26" s="7">
         <v>921</v>
       </c>
       <c r="I26" s="7">
-        <v>740528</v>
+        <v>613206</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="M26" s="7">
         <v>1380</v>
       </c>
       <c r="N26" s="7">
-        <v>1272808</v>
+        <v>1264389</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>606</v>
+        <v>251</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,7 +8271,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8223,7 +8286,7 @@
         <v>1058</v>
       </c>
       <c r="I27" s="7">
-        <v>862838</v>
+        <v>713031</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8238,7 +8301,7 @@
         <v>1820</v>
       </c>
       <c r="N27" s="7">
-        <v>1722266</v>
+        <v>1641751</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8261,46 +8324,46 @@
         <v>1588</v>
       </c>
       <c r="D28" s="7">
-        <v>1618703</v>
+        <v>1580302</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>173</v>
+        <v>624</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="H28" s="7">
         <v>1206</v>
       </c>
       <c r="I28" s="7">
-        <v>997784</v>
+        <v>1028192</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="M28" s="7">
         <v>2794</v>
       </c>
       <c r="N28" s="7">
-        <v>2616487</v>
+        <v>2608494</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8312,46 +8375,46 @@
         <v>1780</v>
       </c>
       <c r="D29" s="7">
-        <v>1759459</v>
+        <v>1872746</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>633</v>
       </c>
       <c r="H29" s="7">
         <v>4145</v>
       </c>
       <c r="I29" s="7">
-        <v>2798954</v>
+        <v>2624154</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="M29" s="7">
         <v>5925</v>
       </c>
       <c r="N29" s="7">
-        <v>4558414</v>
+        <v>4496901</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8363,7 +8426,7 @@
         <v>3368</v>
       </c>
       <c r="D30" s="7">
-        <v>3378162</v>
+        <v>3453048</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8378,7 +8441,7 @@
         <v>5351</v>
       </c>
       <c r="I30" s="7">
-        <v>3796738</v>
+        <v>3652346</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8393,7 +8456,7 @@
         <v>8719</v>
       </c>
       <c r="N30" s="7">
-        <v>7174901</v>
+        <v>7105395</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
